--- a/public/uploads/excel-formats/customers-group.xlsx
+++ b/public/uploads/excel-formats/customers-group.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\public\uploads\excel-formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\headquater\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -431,10 +431,29 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
